--- a/data/trans_orig/P44AS1-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P44AS1-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCF2EEE7-C19B-4A13-AD25-BDEDE5A034D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1DAE890-7E8E-4160-9018-B8C3210D769F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1095C53B-4126-4DCD-8F5B-D47B3EE958F3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{979BFDA0-CB67-48FC-A668-A40D0346DC0F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="420">
   <si>
     <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 1 en 2012 (Tasa respuesta: 2,95%)</t>
   </si>
@@ -106,1177 +106,1198 @@
     <t>16,5%</t>
   </si>
   <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
   </si>
   <si>
     <t>9,76%</t>
   </si>
   <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
   </si>
   <si>
     <t>46,02%</t>
   </si>
   <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
   </si>
   <si>
     <t>41,4%</t>
   </si>
   <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 1 en 2015 (Tasa respuesta: 3,85%)</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
     <t>20,28%</t>
   </si>
   <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
   </si>
   <si>
     <t>28,55%</t>
   </si>
   <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 1 en 2015 (Tasa respuesta: 3,85%)</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 1 en 2023 (Tasa respuesta: 18,38%)</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
   </si>
   <si>
     <t>12,6%</t>
   </si>
   <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 1 en 2023 (Tasa respuesta: 18,38%)</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
+    <t>41,62%</t>
   </si>
   <si>
     <t>11,49%</t>
   </si>
   <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
+    <t>13,98%</t>
   </si>
   <si>
     <t>16,46%</t>
   </si>
   <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
   </si>
 </sst>
 </file>
@@ -1688,7 +1709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF685AF-9A6B-4C80-AF09-58C253888411}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{775F0169-715D-44D6-9C3D-839480B0D1C3}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2664,10 +2685,10 @@
         <v>45</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
@@ -2676,13 +2697,13 @@
         <v>14277</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2697,13 +2718,13 @@
         <v>14172</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>19</v>
@@ -2712,13 +2733,13 @@
         <v>20509</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>31</v>
@@ -2727,18 +2748,18 @@
         <v>34681</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2750,13 +2771,13 @@
         <v>5435</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -2765,13 +2786,13 @@
         <v>7108</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M24" s="7">
         <v>10</v>
@@ -2780,13 +2801,13 @@
         <v>12543</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,13 +2822,13 @@
         <v>17259</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -2816,13 +2837,13 @@
         <v>18446</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M25" s="7">
         <v>31</v>
@@ -2831,13 +2852,13 @@
         <v>35705</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2852,13 +2873,13 @@
         <v>4278</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2873,7 +2894,7 @@
         <v>19</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -2882,13 +2903,13 @@
         <v>4278</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2903,13 +2924,13 @@
         <v>12368</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H27" s="7">
         <v>7</v>
@@ -2918,13 +2939,13 @@
         <v>8211</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M27" s="7">
         <v>19</v>
@@ -2933,13 +2954,13 @@
         <v>20579</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2954,13 +2975,13 @@
         <v>39341</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H28" s="7">
         <v>29</v>
@@ -2969,13 +2990,13 @@
         <v>33764</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M28" s="7">
         <v>63</v>
@@ -2984,18 +3005,18 @@
         <v>73105</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -3007,13 +3028,13 @@
         <v>8289</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
@@ -3022,13 +3043,13 @@
         <v>12331</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M29" s="7">
         <v>19</v>
@@ -3037,13 +3058,13 @@
         <v>20619</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3058,13 +3079,13 @@
         <v>20359</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H30" s="7">
         <v>19</v>
@@ -3073,13 +3094,13 @@
         <v>20553</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M30" s="7">
         <v>35</v>
@@ -3088,13 +3109,13 @@
         <v>40911</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3109,13 +3130,13 @@
         <v>5124</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -3124,13 +3145,13 @@
         <v>1891</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M31" s="7">
         <v>7</v>
@@ -3139,13 +3160,13 @@
         <v>7014</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,13 +3181,13 @@
         <v>22083</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H32" s="7">
         <v>17</v>
@@ -3175,13 +3196,13 @@
         <v>17904</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M32" s="7">
         <v>37</v>
@@ -3190,13 +3211,13 @@
         <v>39987</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,13 +3232,13 @@
         <v>55854</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H33" s="7">
         <v>49</v>
@@ -3226,13 +3247,13 @@
         <v>52678</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M33" s="7">
         <v>98</v>
@@ -3241,13 +3262,13 @@
         <v>108532</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3264,13 +3285,13 @@
         <v>13724</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H34" s="7">
         <v>20</v>
@@ -3279,13 +3300,13 @@
         <v>22822</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M34" s="7">
         <v>32</v>
@@ -3294,13 +3315,13 @@
         <v>36546</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3315,13 +3336,13 @@
         <v>44140</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H35" s="7">
         <v>43</v>
@@ -3330,13 +3351,13 @@
         <v>47490</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M35" s="7">
         <v>79</v>
@@ -3345,13 +3366,13 @@
         <v>91630</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,13 +3387,13 @@
         <v>10432</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H36" s="7">
         <v>3</v>
@@ -3381,13 +3402,13 @@
         <v>2868</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M36" s="7">
         <v>12</v>
@@ -3468,13 +3489,13 @@
         <v>109366</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H38" s="7">
         <v>97</v>
@@ -3483,13 +3504,13 @@
         <v>106951</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M38" s="7">
         <v>192</v>
@@ -3498,13 +3519,13 @@
         <v>216318</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3531,7 +3552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{579F8DF9-E4DE-46CC-8B7E-2E8107776F99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B72ADCA-C456-4575-A7B8-DEBFFCCE10D5}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4525,7 +4546,7 @@
         <v>189</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>62</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4540,13 +4561,13 @@
         <v>26782</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
@@ -4555,13 +4576,13 @@
         <v>11037</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>34</v>
@@ -4570,18 +4591,18 @@
         <v>37819</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4593,13 +4614,13 @@
         <v>12144</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -4608,13 +4629,13 @@
         <v>7075</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M24" s="7">
         <v>16</v>
@@ -4623,13 +4644,13 @@
         <v>19219</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4644,13 +4665,13 @@
         <v>21457</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -4659,7 +4680,7 @@
         <v>14870</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>203</v>
@@ -4710,7 +4731,7 @@
         <v>2212</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>18</v>
@@ -4797,13 +4818,13 @@
         <v>52395</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H28" s="7">
         <v>33</v>
@@ -4812,13 +4833,13 @@
         <v>37840</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M28" s="7">
         <v>79</v>
@@ -4827,18 +4848,18 @@
         <v>90235</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -4970,10 +4991,10 @@
         <v>244</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>53</v>
+        <v>245</v>
       </c>
       <c r="M31" s="7">
         <v>8</v>
@@ -4982,13 +5003,13 @@
         <v>9057</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5003,13 +5024,13 @@
         <v>31756</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H32" s="7">
         <v>21</v>
@@ -5018,13 +5039,13 @@
         <v>24600</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M32" s="7">
         <v>55</v>
@@ -5033,13 +5054,13 @@
         <v>56356</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5054,13 +5075,13 @@
         <v>80509</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H33" s="7">
         <v>57</v>
@@ -5069,13 +5090,13 @@
         <v>67249</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M33" s="7">
         <v>140</v>
@@ -5084,13 +5105,13 @@
         <v>147758</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5107,13 +5128,13 @@
         <v>32380</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>31</v>
+        <v>258</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H34" s="7">
         <v>21</v>
@@ -5122,13 +5143,13 @@
         <v>23328</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="M34" s="7">
         <v>50</v>
@@ -5137,13 +5158,13 @@
         <v>55708</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5161,10 +5182,10 @@
         <v>149</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H35" s="7">
         <v>40</v>
@@ -5173,13 +5194,13 @@
         <v>48124</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>198</v>
+        <v>270</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M35" s="7">
         <v>98</v>
@@ -5188,13 +5209,13 @@
         <v>108084</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>220</v>
+        <v>273</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5209,13 +5230,13 @@
         <v>9107</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -5224,13 +5245,13 @@
         <v>6390</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="M36" s="7">
         <v>14</v>
@@ -5239,13 +5260,13 @@
         <v>15497</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5260,13 +5281,13 @@
         <v>58240</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="H37" s="7">
         <v>33</v>
@@ -5275,13 +5296,13 @@
         <v>38283</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="M37" s="7">
         <v>91</v>
@@ -5290,13 +5311,13 @@
         <v>96523</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5311,13 +5332,13 @@
         <v>159686</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H38" s="7">
         <v>100</v>
@@ -5326,13 +5347,13 @@
         <v>116126</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M38" s="7">
         <v>253</v>
@@ -5341,13 +5362,13 @@
         <v>275812</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5374,7 +5395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ECE12D5-AD2F-4FDF-A8F4-00FBF6ED051C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF9DC031-0322-4692-B215-44EA3555A391}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5391,7 +5412,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6179,13 +6200,13 @@
         <v>1107</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -6194,13 +6215,13 @@
         <v>455</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -6209,13 +6230,13 @@
         <v>1562</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6230,13 +6251,13 @@
         <v>20416</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="H20" s="7">
         <v>26</v>
@@ -6245,13 +6266,13 @@
         <v>15976</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="M20" s="7">
         <v>49</v>
@@ -6260,13 +6281,13 @@
         <v>36392</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6281,13 +6302,13 @@
         <v>56905</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="H21" s="7">
         <v>81</v>
@@ -6296,13 +6317,13 @@
         <v>52444</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="M21" s="7">
         <v>137</v>
@@ -6311,13 +6332,13 @@
         <v>109348</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6332,13 +6353,13 @@
         <v>64125</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>247</v>
+        <v>319</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -6347,13 +6368,13 @@
         <v>7549</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="M22" s="7">
         <v>23</v>
@@ -6362,13 +6383,13 @@
         <v>71674</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6383,13 +6404,13 @@
         <v>142552</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>119</v>
@@ -6398,13 +6419,13 @@
         <v>76424</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>211</v>
@@ -6413,18 +6434,18 @@
         <v>218976</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6442,7 +6463,7 @@
         <v>19</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6457,7 +6478,7 @@
         <v>19</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -6472,7 +6493,7 @@
         <v>19</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6487,13 +6508,13 @@
         <v>55618</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="H25" s="7">
         <v>48</v>
@@ -6502,13 +6523,13 @@
         <v>29406</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>328</v>
+        <v>224</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="M25" s="7">
         <v>110</v>
@@ -6517,13 +6538,13 @@
         <v>85025</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6538,13 +6559,13 @@
         <v>109402</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="H26" s="7">
         <v>204</v>
@@ -6553,13 +6574,13 @@
         <v>122797</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="M26" s="7">
         <v>330</v>
@@ -6568,13 +6589,13 @@
         <v>232199</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>171</v>
+        <v>346</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6589,13 +6610,13 @@
         <v>28695</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>31</v>
+        <v>349</v>
       </c>
       <c r="H27" s="7">
         <v>28</v>
@@ -6604,13 +6625,13 @@
         <v>16159</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="M27" s="7">
         <v>57</v>
@@ -6619,13 +6640,13 @@
         <v>44854</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6640,13 +6661,13 @@
         <v>193715</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H28" s="7">
         <v>280</v>
@@ -6655,13 +6676,13 @@
         <v>168362</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M28" s="7">
         <v>497</v>
@@ -6670,18 +6691,18 @@
         <v>362078</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -6693,13 +6714,13 @@
         <v>2468</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -6708,13 +6729,13 @@
         <v>639</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -6723,13 +6744,13 @@
         <v>3107</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6744,13 +6765,13 @@
         <v>84809</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="H30" s="7">
         <v>152</v>
@@ -6759,13 +6780,13 @@
         <v>82590</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="M30" s="7">
         <v>279</v>
@@ -6774,13 +6795,13 @@
         <v>167399</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>115</v>
+        <v>369</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6795,13 +6816,13 @@
         <v>157959</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="H31" s="7">
         <v>283</v>
@@ -6810,13 +6831,13 @@
         <v>162094</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="M31" s="7">
         <v>507</v>
@@ -6825,13 +6846,13 @@
         <v>320053</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6846,13 +6867,13 @@
         <v>34835</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="H32" s="7">
         <v>62</v>
@@ -6861,13 +6882,13 @@
         <v>36811</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="M32" s="7">
         <v>108</v>
@@ -6876,13 +6897,13 @@
         <v>71646</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6897,13 +6918,13 @@
         <v>280071</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H33" s="7">
         <v>498</v>
@@ -6912,13 +6933,13 @@
         <v>282135</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M33" s="7">
         <v>899</v>
@@ -6927,13 +6948,13 @@
         <v>562206</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6950,13 +6971,13 @@
         <v>3575</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -6965,13 +6986,13 @@
         <v>1095</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="M34" s="7">
         <v>7</v>
@@ -6980,13 +7001,13 @@
         <v>4670</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7001,13 +7022,13 @@
         <v>160844</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="H35" s="7">
         <v>226</v>
@@ -7016,13 +7037,13 @@
         <v>127973</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="M35" s="7">
         <v>438</v>
@@ -7031,13 +7052,13 @@
         <v>288816</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>394</v>
+        <v>218</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7052,13 +7073,13 @@
         <v>324265</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>114</v>
+        <v>404</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="H36" s="7">
         <v>568</v>
@@ -7067,13 +7088,13 @@
         <v>337335</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="M36" s="7">
         <v>974</v>
@@ -7082,13 +7103,13 @@
         <v>661600</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7103,13 +7124,13 @@
         <v>127655</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="H37" s="7">
         <v>101</v>
@@ -7118,13 +7139,13 @@
         <v>60519</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>408</v>
+        <v>354</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="M37" s="7">
         <v>188</v>
@@ -7133,13 +7154,13 @@
         <v>188174</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7154,13 +7175,13 @@
         <v>616339</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H38" s="7">
         <v>897</v>
@@ -7169,13 +7190,13 @@
         <v>526921</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M38" s="7">
         <v>1607</v>
@@ -7184,13 +7205,13 @@
         <v>1143260</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P44AS1-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P44AS1-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1DAE890-7E8E-4160-9018-B8C3210D769F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B23E2B8-2A32-4044-814A-072DD02A2B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{979BFDA0-CB67-48FC-A668-A40D0346DC0F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3657FC1C-2103-4CA3-8F7E-D62C02F2F55E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="410">
   <si>
     <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 1 en 2012 (Tasa respuesta: 2,95%)</t>
   </si>
@@ -106,1146 +106,1119 @@
     <t>16,5%</t>
   </si>
   <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
   </si>
   <si>
     <t>9,76%</t>
   </si>
   <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
   </si>
   <si>
     <t>46,02%</t>
   </si>
   <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
   </si>
   <si>
     <t>41,4%</t>
   </si>
   <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
   </si>
   <si>
     <t>43,29%</t>
   </si>
   <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
   </si>
   <si>
     <t>7,27%</t>
   </si>
   <si>
-    <t>37,1%</t>
+    <t>35,21%</t>
   </si>
   <si>
     <t>4,76%</t>
   </si>
   <si>
-    <t>22,18%</t>
+    <t>19,53%</t>
   </si>
   <si>
     <t>5,79%</t>
   </si>
   <si>
-    <t>18,19%</t>
+    <t>17,73%</t>
   </si>
   <si>
     <t>46,71%</t>
   </si>
   <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
   </si>
   <si>
     <t>37,33%</t>
   </si>
   <si>
-    <t>62,8%</t>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
   </si>
   <si>
     <t>41,17%</t>
   </si>
   <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
     <t>26,31%</t>
   </si>
   <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
   </si>
   <si>
     <t>40,75%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
     <t>34,6%</t>
   </si>
   <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 1 en 2015 (Tasa respuesta: 3,85%)</t>
+    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 1 en 2016 (Tasa respuesta: 3,85%)</t>
   </si>
   <si>
     <t>12,09%</t>
   </si>
   <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
+    <t>3,67%</t>
   </si>
   <si>
     <t>46,5%</t>
   </si>
   <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
   </si>
   <si>
     <t>22,14%</t>
   </si>
   <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
   </si>
   <si>
     <t>47,23%</t>
   </si>
   <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
   </si>
   <si>
     <t>44,2%</t>
   </si>
   <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
   </si>
   <si>
     <t>46,35%</t>
   </si>
   <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
   </si>
   <si>
     <t>3,72%</t>
   </si>
   <si>
-    <t>19,49%</t>
+    <t>15,46%</t>
   </si>
   <si>
     <t>9,29%</t>
   </si>
   <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
     <t>39,3%</t>
   </si>
   <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
   </si>
   <si>
     <t>40,26%</t>
   </si>
   <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
   </si>
   <si>
     <t>4,21%</t>
   </si>
   <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
   </si>
   <si>
     <t>4,9%</t>
   </si>
   <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
   </si>
   <si>
     <t>31,66%</t>
   </si>
   <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
   </si>
   <si>
     <t>36,16%</t>
   </si>
   <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 1 en 2023 (Tasa respuesta: 18,38%)</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
     <t>21,63%</t>
   </si>
   <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 1 en 2023 (Tasa respuesta: 18,38%)</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
     <t>27,98%</t>
   </si>
   <si>
@@ -1271,9 +1244,6 @@
   </si>
   <si>
     <t>49,03%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
   </si>
   <si>
     <t>20,71%</t>
@@ -1709,7 +1679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{775F0169-715D-44D6-9C3D-839480B0D1C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E9934DB-2A34-4CD4-BB30-2F0EAB608BDC}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2685,10 +2655,10 @@
         <v>45</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
@@ -2697,13 +2667,13 @@
         <v>14277</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2718,13 +2688,13 @@
         <v>14172</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H23" s="7">
         <v>19</v>
@@ -2733,13 +2703,13 @@
         <v>20509</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M23" s="7">
         <v>31</v>
@@ -2748,18 +2718,18 @@
         <v>34681</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2771,13 +2741,13 @@
         <v>5435</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -2786,13 +2756,13 @@
         <v>7108</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M24" s="7">
         <v>10</v>
@@ -2801,13 +2771,13 @@
         <v>12543</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2822,13 +2792,13 @@
         <v>17259</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -2837,13 +2807,13 @@
         <v>18446</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M25" s="7">
         <v>31</v>
@@ -2852,13 +2822,13 @@
         <v>35705</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2873,13 +2843,13 @@
         <v>4278</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2894,7 +2864,7 @@
         <v>19</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -2903,13 +2873,13 @@
         <v>4278</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2924,13 +2894,13 @@
         <v>12368</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H27" s="7">
         <v>7</v>
@@ -2939,13 +2909,13 @@
         <v>8211</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M27" s="7">
         <v>19</v>
@@ -2954,13 +2924,13 @@
         <v>20579</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,13 +2945,13 @@
         <v>39341</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H28" s="7">
         <v>29</v>
@@ -2990,13 +2960,13 @@
         <v>33764</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M28" s="7">
         <v>63</v>
@@ -3005,18 +2975,18 @@
         <v>73105</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -3028,13 +2998,13 @@
         <v>8289</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
@@ -3043,13 +3013,13 @@
         <v>12331</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M29" s="7">
         <v>19</v>
@@ -3058,13 +3028,13 @@
         <v>20619</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,13 +3049,13 @@
         <v>20359</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H30" s="7">
         <v>19</v>
@@ -3094,13 +3064,13 @@
         <v>20553</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M30" s="7">
         <v>35</v>
@@ -3109,13 +3079,13 @@
         <v>40911</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,13 +3100,13 @@
         <v>5124</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -3145,13 +3115,13 @@
         <v>1891</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M31" s="7">
         <v>7</v>
@@ -3160,7 +3130,7 @@
         <v>7014</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>111</v>
@@ -3214,10 +3184,10 @@
         <v>119</v>
       </c>
       <c r="P32" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3232,13 +3202,13 @@
         <v>55854</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H33" s="7">
         <v>49</v>
@@ -3247,13 +3217,13 @@
         <v>52678</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M33" s="7">
         <v>98</v>
@@ -3262,13 +3232,13 @@
         <v>108532</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3285,13 +3255,13 @@
         <v>13724</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H34" s="7">
         <v>20</v>
@@ -3300,13 +3270,13 @@
         <v>22822</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M34" s="7">
         <v>32</v>
@@ -3315,13 +3285,13 @@
         <v>36546</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3336,13 +3306,13 @@
         <v>44140</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H35" s="7">
         <v>43</v>
@@ -3351,13 +3321,13 @@
         <v>47490</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M35" s="7">
         <v>79</v>
@@ -3366,13 +3336,13 @@
         <v>91630</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3387,13 +3357,13 @@
         <v>10432</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H36" s="7">
         <v>3</v>
@@ -3402,13 +3372,13 @@
         <v>2868</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M36" s="7">
         <v>12</v>
@@ -3417,13 +3387,13 @@
         <v>13299</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,13 +3408,13 @@
         <v>41070</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H37" s="7">
         <v>31</v>
@@ -3453,13 +3423,13 @@
         <v>33771</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M37" s="7">
         <v>69</v>
@@ -3468,13 +3438,13 @@
         <v>74842</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,13 +3459,13 @@
         <v>109366</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H38" s="7">
         <v>97</v>
@@ -3504,13 +3474,13 @@
         <v>106951</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M38" s="7">
         <v>192</v>
@@ -3519,18 +3489,18 @@
         <v>216318</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3552,7 +3522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B72ADCA-C456-4575-A7B8-DEBFFCCE10D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D2D4FFA-6A53-407E-8C64-CB8A80AE998A}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3569,7 +3539,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4357,13 +4327,13 @@
         <v>3239</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -4372,13 +4342,13 @@
         <v>5132</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -4387,13 +4357,13 @@
         <v>8372</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4408,13 +4378,13 @@
         <v>12650</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -4423,13 +4393,13 @@
         <v>4879</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M20" s="7">
         <v>15</v>
@@ -4438,13 +4408,13 @@
         <v>17529</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4459,13 +4429,13 @@
         <v>996</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -4474,13 +4444,13 @@
         <v>1026</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -4489,13 +4459,13 @@
         <v>2022</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>183</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4510,13 +4480,13 @@
         <v>9896</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4531,7 +4501,7 @@
         <v>19</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -4540,13 +4510,13 @@
         <v>9896</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4561,13 +4531,13 @@
         <v>26782</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
@@ -4576,13 +4546,13 @@
         <v>11037</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M23" s="7">
         <v>34</v>
@@ -4591,18 +4561,18 @@
         <v>37819</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4614,13 +4584,13 @@
         <v>12144</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -4629,13 +4599,13 @@
         <v>7075</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M24" s="7">
         <v>16</v>
@@ -4644,13 +4614,13 @@
         <v>19219</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>197</v>
+        <v>151</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4665,13 +4635,13 @@
         <v>21457</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -4680,13 +4650,13 @@
         <v>14870</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M25" s="7">
         <v>32</v>
@@ -4695,13 +4665,13 @@
         <v>36327</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4716,13 +4686,13 @@
         <v>2206</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -4731,13 +4701,13 @@
         <v>2212</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -4746,13 +4716,13 @@
         <v>4418</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4767,13 +4737,13 @@
         <v>16587</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H27" s="7">
         <v>12</v>
@@ -4782,13 +4752,13 @@
         <v>13683</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M27" s="7">
         <v>27</v>
@@ -4797,13 +4767,13 @@
         <v>30271</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4818,13 +4788,13 @@
         <v>52395</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H28" s="7">
         <v>33</v>
@@ -4833,13 +4803,13 @@
         <v>37840</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M28" s="7">
         <v>79</v>
@@ -4848,18 +4818,18 @@
         <v>90235</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -4871,13 +4841,13 @@
         <v>16997</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H29" s="7">
         <v>10</v>
@@ -4886,13 +4856,13 @@
         <v>11120</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M29" s="7">
         <v>26</v>
@@ -4901,13 +4871,13 @@
         <v>28117</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4922,13 +4892,13 @@
         <v>25852</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H30" s="7">
         <v>23</v>
@@ -4937,13 +4907,13 @@
         <v>28376</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M30" s="7">
         <v>51</v>
@@ -4952,13 +4922,13 @@
         <v>54228</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>239</v>
+        <v>61</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4973,13 +4943,13 @@
         <v>5904</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>243</v>
+        <v>161</v>
       </c>
       <c r="H31" s="7">
         <v>3</v>
@@ -4988,13 +4958,13 @@
         <v>3153</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>75</v>
+        <v>239</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="M31" s="7">
         <v>8</v>
@@ -5003,13 +4973,13 @@
         <v>9057</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5024,13 +4994,13 @@
         <v>31756</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H32" s="7">
         <v>21</v>
@@ -5039,13 +5009,13 @@
         <v>24600</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="M32" s="7">
         <v>55</v>
@@ -5054,13 +5024,13 @@
         <v>56356</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5075,13 +5045,13 @@
         <v>80509</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H33" s="7">
         <v>57</v>
@@ -5090,13 +5060,13 @@
         <v>67249</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M33" s="7">
         <v>140</v>
@@ -5105,13 +5075,13 @@
         <v>147758</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5128,13 +5098,13 @@
         <v>32380</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H34" s="7">
         <v>21</v>
@@ -5143,13 +5113,13 @@
         <v>23328</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>262</v>
+        <v>121</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="M34" s="7">
         <v>50</v>
@@ -5158,13 +5128,13 @@
         <v>55708</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5179,13 +5149,13 @@
         <v>59960</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="H35" s="7">
         <v>40</v>
@@ -5194,13 +5164,13 @@
         <v>48124</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>271</v>
+        <v>99</v>
       </c>
       <c r="M35" s="7">
         <v>98</v>
@@ -5209,13 +5179,13 @@
         <v>108084</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5230,13 +5200,13 @@
         <v>9107</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -5245,13 +5215,13 @@
         <v>6390</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="M36" s="7">
         <v>14</v>
@@ -5260,13 +5230,13 @@
         <v>15497</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5281,13 +5251,13 @@
         <v>58240</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="H37" s="7">
         <v>33</v>
@@ -5296,13 +5266,13 @@
         <v>38283</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="M37" s="7">
         <v>91</v>
@@ -5311,13 +5281,13 @@
         <v>96523</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5332,13 +5302,13 @@
         <v>159686</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H38" s="7">
         <v>100</v>
@@ -5347,13 +5317,13 @@
         <v>116126</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M38" s="7">
         <v>253</v>
@@ -5362,18 +5332,18 @@
         <v>275812</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -5395,7 +5365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF9DC031-0322-4692-B215-44EA3555A391}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F0FF602-6558-4ACA-B8A1-C9350DC82BE5}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5412,7 +5382,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6200,13 +6170,13 @@
         <v>1107</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -6215,13 +6185,13 @@
         <v>455</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -6230,13 +6200,13 @@
         <v>1562</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6251,13 +6221,13 @@
         <v>20416</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="H20" s="7">
         <v>26</v>
@@ -6266,13 +6236,13 @@
         <v>15976</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>304</v>
+        <v>253</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="M20" s="7">
         <v>49</v>
@@ -6281,13 +6251,13 @@
         <v>36392</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6302,13 +6272,13 @@
         <v>56905</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="H21" s="7">
         <v>81</v>
@@ -6317,13 +6287,13 @@
         <v>52444</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="M21" s="7">
         <v>137</v>
@@ -6332,13 +6302,13 @@
         <v>109348</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6353,13 +6323,13 @@
         <v>64125</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>318</v>
+        <v>235</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -6368,13 +6338,13 @@
         <v>7549</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="M22" s="7">
         <v>23</v>
@@ -6383,13 +6353,13 @@
         <v>71674</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6404,13 +6374,13 @@
         <v>142552</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H23" s="7">
         <v>119</v>
@@ -6419,13 +6389,13 @@
         <v>76424</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M23" s="7">
         <v>211</v>
@@ -6434,18 +6404,18 @@
         <v>218976</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6463,7 +6433,7 @@
         <v>19</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6478,7 +6448,7 @@
         <v>19</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -6493,7 +6463,7 @@
         <v>19</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6508,13 +6478,13 @@
         <v>55618</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="H25" s="7">
         <v>48</v>
@@ -6523,13 +6493,13 @@
         <v>29406</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>224</v>
+        <v>324</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="M25" s="7">
         <v>110</v>
@@ -6538,13 +6508,13 @@
         <v>85025</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6559,13 +6529,13 @@
         <v>109402</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="H26" s="7">
         <v>204</v>
@@ -6574,13 +6544,13 @@
         <v>122797</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="M26" s="7">
         <v>330</v>
@@ -6589,13 +6559,13 @@
         <v>232199</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6610,13 +6580,13 @@
         <v>28695</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="H27" s="7">
         <v>28</v>
@@ -6625,13 +6595,13 @@
         <v>16159</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="M27" s="7">
         <v>57</v>
@@ -6640,13 +6610,13 @@
         <v>44854</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6661,13 +6631,13 @@
         <v>193715</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H28" s="7">
         <v>280</v>
@@ -6676,13 +6646,13 @@
         <v>168362</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M28" s="7">
         <v>497</v>
@@ -6691,18 +6661,18 @@
         <v>362078</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -6714,13 +6684,13 @@
         <v>2468</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -6729,13 +6699,13 @@
         <v>639</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -6744,13 +6714,13 @@
         <v>3107</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6765,13 +6735,13 @@
         <v>84809</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="H30" s="7">
         <v>152</v>
@@ -6780,13 +6750,13 @@
         <v>82590</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="M30" s="7">
         <v>279</v>
@@ -6795,13 +6765,13 @@
         <v>167399</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>369</v>
+        <v>227</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6816,13 +6786,13 @@
         <v>157959</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="H31" s="7">
         <v>283</v>
@@ -6831,13 +6801,13 @@
         <v>162094</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="M31" s="7">
         <v>507</v>
@@ -6846,13 +6816,13 @@
         <v>320053</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6867,13 +6837,13 @@
         <v>34835</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="H32" s="7">
         <v>62</v>
@@ -6882,13 +6852,13 @@
         <v>36811</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="M32" s="7">
         <v>108</v>
@@ -6897,13 +6867,13 @@
         <v>71646</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6918,13 +6888,13 @@
         <v>280071</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H33" s="7">
         <v>498</v>
@@ -6933,13 +6903,13 @@
         <v>282135</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M33" s="7">
         <v>899</v>
@@ -6948,13 +6918,13 @@
         <v>562206</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6971,13 +6941,13 @@
         <v>3575</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -6986,13 +6956,13 @@
         <v>1095</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="M34" s="7">
         <v>7</v>
@@ -7001,13 +6971,13 @@
         <v>4670</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7022,13 +6992,13 @@
         <v>160844</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="H35" s="7">
         <v>226</v>
@@ -7037,13 +7007,13 @@
         <v>127973</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="M35" s="7">
         <v>438</v>
@@ -7052,13 +7022,13 @@
         <v>288816</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>218</v>
+        <v>392</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7073,13 +7043,13 @@
         <v>324265</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="H36" s="7">
         <v>568</v>
@@ -7088,13 +7058,13 @@
         <v>337335</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="M36" s="7">
         <v>974</v>
@@ -7103,13 +7073,13 @@
         <v>661600</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>411</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7124,13 +7094,13 @@
         <v>127655</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="H37" s="7">
         <v>101</v>
@@ -7139,13 +7109,13 @@
         <v>60519</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="M37" s="7">
         <v>188</v>
@@ -7154,13 +7124,13 @@
         <v>188174</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7175,13 +7145,13 @@
         <v>616339</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H38" s="7">
         <v>897</v>
@@ -7190,13 +7160,13 @@
         <v>526921</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M38" s="7">
         <v>1607</v>
@@ -7205,18 +7175,18 @@
         <v>1143260</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
